--- a/db/AiCity-33-Announcement.xlsx
+++ b/db/AiCity-33-Announcement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019B/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0915E3-30C7-CC46-9E6D-92BAF54F7409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C0AD84-219D-7544-9EAD-57E517B89D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5120" yWindow="3780" windowWidth="23440" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
   </bookViews>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>:2020養生村健走活動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>109年11月05日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,6 +226,10 @@
 &lt;li&gt;活動行程:樂學路二街ロ630上車出發一竹南啤酒廠一玫瑰莊園一中餐一花露花卉農場一晚餐一賦歸返家(主辦得視路況時間調整)。&lt;/li&gt;
 &lt;li&gt;諮詢長庚里辦公處:鍾小姐/黃小姐電話0952887919/健康促進 陳小姐&lt;/li&gt;
 &lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020養生村健走活動</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,10 +603,10 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -691,86 +691,86 @@
     </row>
     <row r="4" spans="1:7" ht="176">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="144">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="192">
       <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="112">
       <c r="G7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="112">
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="112">
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-33-Announcement.xlsx
+++ b/db/AiCity-33-Announcement.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019B/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C0AD84-219D-7544-9EAD-57E517B89D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD137AE-2294-C146-A50B-80E4CA37421B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="3780" windowWidth="23440" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
+    <workbookView xWindow="23660" yWindow="4220" windowWidth="33120" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$G$63</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,40 +199,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>109年11月 10日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1091110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ai樂第1091110001號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>109年12月05日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>長庚里109年A7重劃社區旅遊觀摩活動</t>
+    <t>2020養生村健走活動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ai樂第1091116003號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年11月 16日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長庚里里民觀摩一日遊活</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;ol&gt;
-&lt;li&gt;目的:長庚里住民,藉由旅遊觀摩活動的舉辦,鼓勵走出户外親近大自然舒展身心,連絡情感增進彼此間的交流,提升健康運動樂活的觀念,提倡正當休閒活動風氣。&lt;/li&gt;
-&lt;li&gt;活動日期:109年12月5日(星期六)6時30分至19時30分&lt;/li&gt;
-&lt;li&gt;主辦:桃園市亀山區公所/長庚里辦公處承辦。&lt;/li&gt;
-&lt;li&gt;參加:户籍設長庚里長慶二三街(樂捷.奇幻兩社區)。 一户最多4人/共計80人(兩車)&lt;/li&gt;
-&lt;li&gt;費用:每人酌收500元/3歲以下酌收車費.保險(不供餐)360元&lt;/li&gt;
-&lt;li&gt;報名:11/15下午4:00-500樂捷大廳.依户籍文件證明報名及辦保險資料.缴費.額滿提早截止.&lt;/li&gt;
-&lt;li&gt;活動行程:樂學路二街ロ630上車出發一竹南啤酒廠一玫瑰莊園一中餐一花露花卉農場一晚餐一賦歸返家(主辦得視路況時間調整)。&lt;/li&gt;
-&lt;li&gt;諮詢長庚里辦公處:鍾小姐/黃小姐電話0952887919/健康促進 陳小姐&lt;/li&gt;
+&lt;li&gt;活動日期:109年12月5日(星期六)6:30-19:30.&lt;/li&gt;
+&lt;li&gt;主辦:桃園市龜山區公所/長庚里辦公處承辦&lt;/li&gt;
+&lt;li&gt;參加:設籍長庚里住户(醫護新村.樂捷.奇幻)
+每户限額四名/一車&lt;/li&gt;
+&lt;li&gt;報名:11/23晚上8:00-9:00長庚里辦公處報名(醫護新村80號BI)攜帶相關證件.併缴保險資料. 費用每人500元(3歲以上/3歲以下360元(不供餐).額滿提早截止.&lt;/li&gt;
+&lt;li&gt;.活動行程:630上車出發(醫護新村ATM前/樂捷奇幻社區長慶二街口)一竹南啤酒廠一玫瑰莊園一中餐一花露花卉農場一晚餐一賦歸返家(主辦得視路況時間調整)。&lt;/li&gt;
+&lt;li&gt;諮詢長庚里辦公處:鍾/黃小姐電話095-288-7919&lt;/li&gt;
 &lt;/ol&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020養生村健走活動</t>
+    <t>1091116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年11月16日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ai樂第1091116001號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年12月31日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理費帳單投遞方式將改為上傳智生活
+app系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+&lt;li&gt;於109年12月起管理費帳單,將改成使用智生活app系統繳費,不再列印紙本帳單。&lt;/li&gt;
+&lt;li&gt;因響應環保不再列印紙本繳費單(郵寄住戶除外),若有住戶仍需要紙本繳費單,請至管理中心登記。&lt;/li&gt;
+&lt;li&gt;原社區管理費帳戶國泰世華銀行改為永豐銀行,國泰世華將成為社區專款專用户頭。&lt;/li&gt;
+&lt;li&gt;如住戶已綁訂或約定轉帳管理費至國泰世華,請來電管理中心或至大廳櫃台更換永豐銀行帳號。&lt;/li&gt;
+&lt;/ol&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,13 +628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C091220D-5AB3-1349-AE3A-DD8EF169D2ED}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -643,137 +671,154 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="128">
+    <row r="2" spans="1:7" ht="96">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="112">
+    <row r="3" spans="1:7" ht="176">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="176">
+    <row r="4" spans="1:7" ht="128">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="144">
+    <row r="5" spans="1:7" ht="112">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="144">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="192">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:7" ht="176">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="112">
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="112">
-      <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="112">
-      <c r="G9" s="2" t="s">
+    <row r="61" spans="7:7" ht="112">
+      <c r="G61" s="2" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G63" xr:uid="{8B01DBA7-805C-004A-B9F8-3094FE2A3B18}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G64">
+    <sortCondition descending="1" ref="A1:A64"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-33-Announcement.xlsx
+++ b/db/AiCity-33-Announcement.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019B/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD137AE-2294-C146-A50B-80E4CA37421B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C0AD84-219D-7544-9EAD-57E517B89D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23660" yWindow="4220" windowWidth="33120" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
+    <workbookView xWindow="5120" yWindow="3780" windowWidth="23440" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$G$63</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,65 +196,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>109年11月 10日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1091110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ai樂第1091110001號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>109年12月05日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>長庚里109年A7重劃社區旅遊觀摩活動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+&lt;li&gt;目的:長庚里住民,藉由旅遊觀摩活動的舉辦,鼓勵走出户外親近大自然舒展身心,連絡情感增進彼此間的交流,提升健康運動樂活的觀念,提倡正當休閒活動風氣。&lt;/li&gt;
+&lt;li&gt;活動日期:109年12月5日(星期六)6時30分至19時30分&lt;/li&gt;
+&lt;li&gt;主辦:桃園市亀山區公所/長庚里辦公處承辦。&lt;/li&gt;
+&lt;li&gt;參加:户籍設長庚里長慶二三街(樂捷.奇幻兩社區)。 一户最多4人/共計80人(兩車)&lt;/li&gt;
+&lt;li&gt;費用:每人酌收500元/3歲以下酌收車費.保險(不供餐)360元&lt;/li&gt;
+&lt;li&gt;報名:11/15下午4:00-500樂捷大廳.依户籍文件證明報名及辦保險資料.缴費.額滿提早截止.&lt;/li&gt;
+&lt;li&gt;活動行程:樂學路二街ロ630上車出發一竹南啤酒廠一玫瑰莊園一中餐一花露花卉農場一晚餐一賦歸返家(主辦得視路況時間調整)。&lt;/li&gt;
+&lt;li&gt;諮詢長庚里辦公處:鍾小姐/黃小姐電話0952887919/健康促進 陳小姐&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2020養生村健走活動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ai樂第1091116003號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年11月 16日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>長庚里里民觀摩一日遊活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;ol&gt;
-&lt;li&gt;活動日期:109年12月5日(星期六)6:30-19:30.&lt;/li&gt;
-&lt;li&gt;主辦:桃園市龜山區公所/長庚里辦公處承辦&lt;/li&gt;
-&lt;li&gt;參加:設籍長庚里住户(醫護新村.樂捷.奇幻)
-每户限額四名/一車&lt;/li&gt;
-&lt;li&gt;報名:11/23晚上8:00-9:00長庚里辦公處報名(醫護新村80號BI)攜帶相關證件.併缴保險資料. 費用每人500元(3歲以上/3歲以下360元(不供餐).額滿提早截止.&lt;/li&gt;
-&lt;li&gt;.活動行程:630上車出發(醫護新村ATM前/樂捷奇幻社區長慶二街口)一竹南啤酒廠一玫瑰莊園一中餐一花露花卉農場一晚餐一賦歸返家(主辦得視路況時間調整)。&lt;/li&gt;
-&lt;li&gt;諮詢長庚里辦公處:鍾/黃小姐電話095-288-7919&lt;/li&gt;
-&lt;/ol&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1091116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年11月16日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ai樂第1091116001號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年12月31日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理費帳單投遞方式將改為上傳智生活
-app系統</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;ol&gt;
-&lt;li&gt;於109年12月起管理費帳單,將改成使用智生活app系統繳費,不再列印紙本帳單。&lt;/li&gt;
-&lt;li&gt;因響應環保不再列印紙本繳費單(郵寄住戶除外),若有住戶仍需要紙本繳費單,請至管理中心登記。&lt;/li&gt;
-&lt;li&gt;原社區管理費帳戶國泰世華銀行改為永豐銀行,國泰世華將成為社區專款專用户頭。&lt;/li&gt;
-&lt;li&gt;如住戶已綁訂或約定轉帳管理費至國泰世華,請來電管理中心或至大廳櫃台更換永豐銀行帳號。&lt;/li&gt;
-&lt;/ol&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,13 +600,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C091220D-5AB3-1349-AE3A-DD8EF169D2ED}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -671,154 +643,137 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="96">
+    <row r="2" spans="1:7" ht="128">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="176">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="112">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="128">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="176">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="112">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="144">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="192">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="144">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="176">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="112">
       <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="7:7" ht="112">
-      <c r="G61" s="2" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="1:7" ht="112">
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="112">
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G63" xr:uid="{8B01DBA7-805C-004A-B9F8-3094FE2A3B18}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G64">
-    <sortCondition descending="1" ref="A1:A64"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-33-Announcement.xlsx
+++ b/db/AiCity-33-Announcement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019B/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C0AD84-219D-7544-9EAD-57E517B89D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9589918-CB66-5548-BFEB-2585D157ADFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="3780" windowWidth="23440" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
+    <workbookView xWindow="20380" yWindow="4180" windowWidth="29760" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,47 @@
   </si>
   <si>
     <t>2020養生村健走活動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1091201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年12月 01日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年12月 10日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ai樂管會字第001號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年度12月份例行會議</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+&lt;li&gt;會議名稱: 109年度12月份例行會議&lt;/li&gt;
+&lt;li&gt;開會時間: 中華民國109年12月10日(星期四)19時00分整&lt;/li&gt;
+&lt;li&gt;開會地點: G棟一樓廚藝教室&lt;/li&gt;
+&lt;li&gt;主席: 李主任國駐委員&lt;/li&gt;
+&lt;li&gt;連絡人: 社區經理 高勝隆&lt;/li&gt;
+&lt;li&gt;與會人員: 齊家公寓大廈管理維護&lt;/li&gt;
+&lt;li&gt;會議程序
+   &lt;ul&gt;
+      &lt;li&gt;壹、主席報告&lt;/li&gt;
+      &lt;li&gt;貳、議案討論&lt;/li&gt;
+      &lt;li&gt;參、住戶提案&lt;/li&gt;
+      &lt;li&gt;肆、臨時動議&lt;/li&gt;
+      &lt;li&gt;伍、散會&lt;/li&gt;
+   &lt;/ul&gt;
+&lt;/li&gt;
+&lt;li&gt;議案討論: 議題 - 第一、二屆管理委員交接相關事務。&lt;/li&gt;
+&lt;/ol&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +647,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -643,124 +684,142 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="128">
+    <row r="2" spans="1:7" ht="288">
       <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="128">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="112">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:7" ht="112">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="176">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="192">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="144">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="176">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="144">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="192">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="112">
-      <c r="G7" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="112">
@@ -774,6 +833,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G9">
+    <sortCondition descending="1" ref="A1:A9"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db/AiCity-33-Announcement.xlsx
+++ b/db/AiCity-33-Announcement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9589918-CB66-5548-BFEB-2585D157ADFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BD4493-1111-6C47-898D-7903D12596CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20380" yWindow="4180" windowWidth="29760" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
+    <workbookView xWindow="23580" yWindow="1680" windowWidth="29760" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,34 @@
    &lt;/ul&gt;
 &lt;/li&gt;
 &lt;li&gt;議案討論: 議題 - 第一、二屆管理委員交接相關事務。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1091203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年12月03日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年12月18日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ai樂第1091203001號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/6樂學廚藝教室開始試營運</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+&lt;li&gt;營業時間:週一及週四固定休息清潔日, 週二-週五11:00-20:00(午休14:00/15:00), 週六-週日 10:00-18:00&lt;/li&gt;
+&lt;li&gt;使用樂學廚藝教室,使用(一般點數)進行扣點&lt;/li&gt;
+&lt;li&gt;菜單：如生活資訊 / 社區商店 / 廚藝教室 網頁&lt;/li&gt;
 &lt;/ol&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -684,147 +712,165 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="288">
+    <row r="2" spans="1:7" ht="80">
       <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="288">
+      <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="128">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:7" ht="128">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="112">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:7" ht="112">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="192">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="192">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="144">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:7" ht="144">
+      <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="176">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:7" ht="176">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="112">
-      <c r="G8" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="112">
@@ -833,8 +879,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G9">
-    <sortCondition descending="1" ref="A1:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
+    <sortCondition descending="1" ref="A2:A9"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/AiCity-33-Announcement.xlsx
+++ b/db/AiCity-33-Announcement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BD4493-1111-6C47-898D-7903D12596CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AEFD35-C6D1-814E-ACB1-8F18E8457D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23580" yWindow="1680" windowWidth="29760" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
+    <workbookView xWindow="2160" yWindow="1180" windowWidth="29760" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,40 @@
 &lt;li&gt;營業時間:週一及週四固定休息清潔日, 週二-週五11:00-20:00(午休14:00/15:00), 週六-週日 10:00-18:00&lt;/li&gt;
 &lt;li&gt;使用樂學廚藝教室,使用(一般點數)進行扣點&lt;/li&gt;
 &lt;li&gt;菜單：如生活資訊 / 社區商店 / 廚藝教室 網頁&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年12月10日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1091210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年12月31日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ai樂第1091210001號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電梯保護掛毯使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+&lt;li&gt;1.為保護社區電梯防止裝潢/修、搬家與載貨時,避免電梯牆面刮傷與碰撞,管委會特製作電梯保護掛毯供住戶使用之。&lt;/li&gt;
+&lt;li&gt;2.租借規範:
+   &lt;ul&gt;
+       &lt;li&gt;月租：4,500元&lt;/li&gt;
+       &lt;li&gt;日租：300元&lt;/li&gt;
+       &lt;li&gt;若需租借者,請向大廳管理中心登記&lt;/li&gt;
+   &lt;/ul&gt;
+&lt;/li&gt;
+&lt;li&gt;3.若住戶於裝潢/修、搬家與載貨時,未租借電梯保護掛毯,得自行於電梯內安裝保護措施,必須經管理中心檢查完成與公告後方能施工。裝潢/修、搬家與載貨施工完成後請將電梯內樓層梯廳及B2保護措施一併拆除帶走。&lt;/li&gt;
 &lt;/ol&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -669,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C091220D-5AB3-1349-AE3A-DD8EF169D2ED}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
@@ -712,175 +746,203 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="80">
+    <row r="2" spans="1:7" ht="224">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="80">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="288">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:7" ht="288">
+      <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="128">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:7" ht="128">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="112">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:7" ht="112">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="192">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="192">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="144">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:7" ht="144">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="176">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:7" ht="176">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="112">
-      <c r="G9" s="2" t="s">
+    <row r="10" spans="1:7" ht="112">
+      <c r="G10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="11" spans="1:7" ht="112">
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G9">
-    <sortCondition descending="1" ref="A2:A9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G11">
+    <sortCondition descending="1" ref="A1:A11"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/AiCity-33-Announcement.xlsx
+++ b/db/AiCity-33-Announcement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AEFD35-C6D1-814E-ACB1-8F18E8457D12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24432E0-C0F7-9B41-A467-894F1E13E563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="1180" windowWidth="29760" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
+    <workbookView xWindow="15920" yWindow="4620" windowWidth="29760" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -323,15 +323,15 @@
   </si>
   <si>
     <t>&lt;ol&gt;
-&lt;li&gt;1.為保護社區電梯防止裝潢/修、搬家與載貨時,避免電梯牆面刮傷與碰撞,管委會特製作電梯保護掛毯供住戶使用之。&lt;/li&gt;
-&lt;li&gt;2.租借規範:
+&lt;li&gt;為保護社區電梯防止裝潢/修、搬家與載貨時,避免電梯牆面刮傷與碰撞,管委會特製作電梯保護掛毯供住戶使用之。&lt;/li&gt;
+&lt;li&gt;租借規範:
    &lt;ul&gt;
        &lt;li&gt;月租：4,500元&lt;/li&gt;
        &lt;li&gt;日租：300元&lt;/li&gt;
        &lt;li&gt;若需租借者,請向大廳管理中心登記&lt;/li&gt;
    &lt;/ul&gt;
 &lt;/li&gt;
-&lt;li&gt;3.若住戶於裝潢/修、搬家與載貨時,未租借電梯保護掛毯,得自行於電梯內安裝保護措施,必須經管理中心檢查完成與公告後方能施工。裝潢/修、搬家與載貨施工完成後請將電梯內樓層梯廳及B2保護措施一併拆除帶走。&lt;/li&gt;
+&lt;li&gt;若住戶於裝潢/修、搬家與載貨時,未租借電梯保護掛毯,得自行於電梯內安裝保護措施,必須經管理中心檢查完成與公告後方能施工。裝潢/修、搬家與載貨施工完成後請將電梯內樓層梯廳及B2保護措施一併拆除帶走。&lt;/li&gt;
 &lt;/ol&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -706,10 +706,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/db/AiCity-33-Announcement.xlsx
+++ b/db/AiCity-33-Announcement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24432E0-C0F7-9B41-A467-894F1E13E563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DBDDCC-059B-B445-BB51-E2949EAC4D4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15920" yWindow="4620" windowWidth="29760" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
+    <workbookView xWindow="3120" yWindow="6260" windowWidth="29760" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,6 +332,36 @@
    &lt;/ul&gt;
 &lt;/li&gt;
 &lt;li&gt;若住戶於裝潢/修、搬家與載貨時,未租借電梯保護掛毯,得自行於電梯內安裝保護措施,必須經管理中心檢查完成與公告後方能施工。裝潢/修、搬家與載貨施工完成後請將電梯內樓層梯廳及B2保護措施一併拆除帶走。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年01月20日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年03月20日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ai樂第1100120001號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:因新型冠狀病毒猖獗請配合防疫措施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+&lt;li&gt;社區服務人員;上班前一律戴口罩、量額溫及酒精消毒。&lt;/li&gt;
+&lt;li&gt;訪客、施工廠商及仲介人員等,一律要戴口罩、量額溫及消毒,凡超過額溫37度者禁止進入社區內。&lt;/li&gt;
+&lt;li&gt;快遞送貨員及外送人員;進入社區一律要戴口罩、量額溫及消毒後,將物品及外送(食品)置放櫃檯,食品並填寫幾號幾樓(外送員請勿進入社區各棟層樓)凡超過額溫37度者禁止進入社區。&lt;/li&gt;
+&lt;li&gt;清潔人員;每日將公設大門及各棟一樓大門門把、按鈕、電梯內外按鈕及樓層按鈕、公廁等進行酒精消毒(含廚藝咖啡廳門把按鈕及室內桌椅進行三次清潔消毒)。&lt;/li&gt;
+&lt;li&gt;住戶離開家裡請務必戴口罩,如有身體不適感冒者,請撥打電話至管理中心協助就醫。&lt;/li&gt;
 &lt;/ol&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -703,13 +733,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C091220D-5AB3-1349-AE3A-DD8EF169D2ED}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -746,193 +776,211 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="224">
+    <row r="2" spans="1:7" ht="144">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="80">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="224">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="80">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="288">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:7" ht="288">
+      <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="128">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:7" ht="128">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="112">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:7" ht="112">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="192">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="192">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="144">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:7" ht="144">
+      <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="176">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:7" ht="176">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="112">
-      <c r="G10" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="112">
@@ -940,9 +988,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="12" spans="1:7" ht="112">
+      <c r="G12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G11">
-    <sortCondition descending="1" ref="A1:A11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G12">
+    <sortCondition descending="1" ref="A1:A12"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/AiCity-33-Announcement.xlsx
+++ b/db/AiCity-33-Announcement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DBDDCC-059B-B445-BB51-E2949EAC4D4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E0013C-22E6-AC4D-85D3-004A9333DC18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="6260" windowWidth="29760" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,55 @@
 &lt;li&gt;快遞送貨員及外送人員;進入社區一律要戴口罩、量額溫及消毒後,將物品及外送(食品)置放櫃檯,食品並填寫幾號幾樓(外送員請勿進入社區各棟層樓)凡超過額溫37度者禁止進入社區。&lt;/li&gt;
 &lt;li&gt;清潔人員;每日將公設大門及各棟一樓大門門把、按鈕、電梯內外按鈕及樓層按鈕、公廁等進行酒精消毒(含廚藝咖啡廳門把按鈕及室內桌椅進行三次清潔消毒)。&lt;/li&gt;
 &lt;li&gt;住戶離開家裡請務必戴口罩,如有身體不適感冒者,請撥打電話至管理中心協助就醫。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年01月27日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年02月17日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ai樂第1100127002號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:銅鑫環保公司農曆新年調整回收時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+&lt;li&gt;銅鑫環保有限公司通告:於110年02月11日除夕(星期四)至110年02月16日初五(星期二)暫停資源回收作業。&lt;/li&gt;
+&lt;li&gt;資源回收室開放到02月09日中午12:00關閉, 2月15日早上07:00開啟&lt;/li&gt;
+&lt;li&gt;屆時回收室會關門上鎖,請住戶勿將回收物品置放B1回收室及門外等。&lt;/li&gt;
+&lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年02月16日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ai樂第1100127001號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃園市政府龜山清潔隊農曆新年暫停
+收垃圾時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ol&gt;
+&lt;li&gt;龜山清潔隊年節至社區收垃圾時間:1.2月11日除夕早上08:00至社區收垃圾後,清潔人員將垃圾間清潔完畢立即關閉大門&lt;/li&gt;
+&lt;li&gt;2月15日初四早上07:00開啟垃圾間倒垃圾。&lt;/li&gt;
+&lt;li&gt;年初一至年初四(四天)年假暫停收垃圾(屆時垃圾間將進行關閉)。&lt;/li&gt;
 &lt;/ol&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -733,13 +782,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C091220D-5AB3-1349-AE3A-DD8EF169D2ED}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -776,226 +825,272 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="144">
+    <row r="2" spans="1:7" ht="96">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="224">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="96">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="80">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="144">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="288">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="224">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="128">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="80">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="288">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="128">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="112">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:7" ht="112">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="192">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="144">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="176">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="192">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="144">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="176">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="112">
-      <c r="G11" s="2" t="s">
+    <row r="13" spans="1:7" ht="112">
+      <c r="G13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="112">
-      <c r="G12" s="2" t="s">
+    <row r="14" spans="1:7" ht="112">
+      <c r="G14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G12">
-    <sortCondition descending="1" ref="A1:A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G14">
+    <sortCondition descending="1" ref="A1:A14"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/AiCity-33-Announcement.xlsx
+++ b/db/AiCity-33-Announcement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E0013C-22E6-AC4D-85D3-004A9333DC18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D866D2-6E3A-C84D-B103-06A2BA4487B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="6260" windowWidth="29760" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
+    <workbookView xWindow="1540" yWindow="1840" windowWidth="29760" windowHeight="17560" xr2:uid="{1BB89FC1-2C20-964F-ACE9-4A2CF6A9FC97}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>:因新型冠狀病毒猖獗請配合防疫措施</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;ol&gt;
 &lt;li&gt;社區服務人員;上班前一律戴口罩、量額溫及酒精消毒。&lt;/li&gt;
 &lt;li&gt;訪客、施工廠商及仲介人員等,一律要戴口罩、量額溫及消毒,凡超過額溫37度者禁止進入社區內。&lt;/li&gt;
@@ -382,10 +378,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>:銅鑫環保公司農曆新年調整回收時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;ol&gt;
 &lt;li&gt;銅鑫環保有限公司通告:於110年02月11日除夕(星期四)至110年02月16日初五(星期二)暫停資源回收作業。&lt;/li&gt;
 &lt;li&gt;資源回收室開放到02月09日中午12:00關閉, 2月15日早上07:00開啟&lt;/li&gt;
@@ -412,6 +404,44 @@
 &lt;li&gt;2月15日初四早上07:00開啟垃圾間倒垃圾。&lt;/li&gt;
 &lt;li&gt;年初一至年初四(四天)年假暫停收垃圾(屆時垃圾間將進行關閉)。&lt;/li&gt;
 &lt;/ol&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銅鑫環保公司農曆新年調整回收時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因新型冠狀病毒猖獗請配合防疫措施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年02月26日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年3月26日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ai樂第1100226001 號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遲繳管理費4月1日起加徴遲延利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大廈管理條例第21條規定:遲繳管理費經定相當期間催告仍不給付者,管理負責人或管理委員會得訴請法院命其給付應繳之金額及遲延利息。&lt;br&gt;
+依照110/2/18管委會決議:
+&lt;ul&gt;
+&lt;li&gt;1.遲繳管理費之遲延利息計算方式,每月底結算,當月遲繳給予緩衝至次月底不收遲延利息(緩衝期約45天)。但是遲繳超過緩衝期者,依照公寓大廈管理條例第21條,按照遲
+繳天數之年利率10%單利計算加收遲延利息!例如:3月當期帳單繳費期限為3月15日,若4月30日前繳費則不收遲延利息。緩衝期為46天。&lt;/li&gt;
+&lt;li&gt;2.基於優惠住戶原則,110年2月之前所有欠繳的管理費,繳費期限一律展延至110年3月31日,至110年4月1日起仍未繳費者,依照欠繳天數加收遲延利息。&lt;/li&gt;
+&lt;/ul&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,13 +812,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C091220D-5AB3-1349-AE3A-DD8EF169D2ED}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -825,262 +855,280 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="96">
+    <row r="2" spans="1:7" ht="155" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="96">
       <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="144">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="96">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="224">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="144">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="80">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="224">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="80">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="288">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:7" ht="288">
+      <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="128">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:7" ht="128">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="112">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:7" ht="112">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="192">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="192">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="144">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:7" ht="144">
+      <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="176">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:7" ht="176">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="112">
-      <c r="G13" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="112">
@@ -1088,9 +1136,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="15" spans="1:7" ht="112">
+      <c r="G15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G14">
-    <sortCondition descending="1" ref="A1:A14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G15">
+    <sortCondition descending="1" ref="A1:A15"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
